--- a/results/stella_results.xlsx
+++ b/results/stella_results.xlsx
@@ -5,22 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivergrasl/git/bptk_py_readme/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikschroeck/Code/bptk_py_readme/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED80F450-0166-0149-8EF3-E7E36399417D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA2986E-6B81-A94F-954E-69EC1649196D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="8200" windowWidth="28240" windowHeight="17100" xr2:uid="{9DD92693-389E-364B-8B02-E2095369E381}"/>
+    <workbookView xWindow="1400" yWindow="8200" windowWidth="28240" windowHeight="17100" activeTab="2" xr2:uid="{9DD92693-389E-364B-8B02-E2095369E381}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario80" sheetId="1" r:id="rId1"/>
     <sheet name="Scenario100" sheetId="2" r:id="rId2"/>
     <sheet name="Scenario120" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -731,9 +736,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1050,7 +1056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D79315-7F31-C54F-B95E-EC3DF64374C4}">
   <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -6074,7 +6080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F503006-1225-DE4C-BC45-4B1160FDDDFF}">
   <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A65" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11090,13 +11096,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0634BFE3-7549-374C-B6CA-92E09A27C574}">
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="51.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -16099,6 +16108,16 @@
       <c r="M122">
         <v>1</v>
       </c>
+    </row>
+    <row r="133" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
